--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/其他服务业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/其他服务业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,385 +558,306 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.511444471859563</v>
+        <v>0.449866767232229</v>
       </c>
       <c r="D2" t="n">
-        <v>0.053008773803665</v>
+        <v>0.038376471472724</v>
       </c>
       <c r="E2" t="n">
-        <v>0.053072579821733</v>
+        <v>0.038967387068159</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006056767016074</v>
+        <v>0.005834019413452</v>
       </c>
       <c r="G2" t="n">
-        <v>0.328735814678854</v>
+        <v>0.425584503932339</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09335328844128001</v>
+        <v>0.10250735393833</v>
       </c>
       <c r="I2" t="n">
-        <v>0.051633340265232</v>
+        <v>0.061118953507546</v>
       </c>
       <c r="J2" t="n">
-        <v>0.488555528140438</v>
+        <v>0.550133232767771</v>
       </c>
       <c r="K2" t="n">
-        <v>0.012492333141883</v>
+        <v>0.010996370599282</v>
       </c>
       <c r="L2" t="n">
-        <v>0.024936229647793</v>
+        <v>0.020617196922905</v>
       </c>
       <c r="M2" t="n">
-        <v>0.055919998493937</v>
+        <v>0.047878163374482</v>
       </c>
       <c r="N2" t="n">
-        <v>0.070579343847857</v>
+        <v>0.056133256182865</v>
       </c>
       <c r="O2" t="n">
-        <v>0.016312974889311</v>
+        <v>0.012725612936682</v>
       </c>
       <c r="P2" t="n">
-        <v>0.017740650307236</v>
+        <v>0.016793331971241</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01926534605083</v>
+        <v>0.014821671943118</v>
       </c>
       <c r="R2" t="n">
-        <v>0.015766507607167</v>
+        <v>0.014461149131861</v>
       </c>
       <c r="S2" t="n">
-        <v>0.090445722889115</v>
+        <v>0.046636443356646</v>
       </c>
       <c r="T2" t="n">
-        <v>0.039646617918237</v>
+        <v>0.042376081979689</v>
       </c>
       <c r="U2" t="n">
-        <v>0.003476739094197</v>
+        <v>0.00361365859856</v>
       </c>
       <c r="V2" t="n">
-        <v>0.006327057837682</v>
+        <v>0.007033477736245</v>
       </c>
       <c r="W2" t="n">
-        <v>0.021512712330536</v>
+        <v>0.01770562612776</v>
       </c>
       <c r="X2" t="n">
-        <v>0.005650396408439</v>
+        <v>0.004713877245534</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.014066805508941</v>
+        <v>0.011105392560581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.449866767232229</v>
+        <v>0.472854524100475</v>
       </c>
       <c r="D3" t="n">
-        <v>0.038376471472724</v>
+        <v>0.023842575596888</v>
       </c>
       <c r="E3" t="n">
-        <v>0.038967387068159</v>
+        <v>0.059436587546591</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005834019413452</v>
+        <v>0.00696366134685</v>
       </c>
       <c r="G3" t="n">
-        <v>0.425584503932339</v>
+        <v>0.405011434966635</v>
       </c>
       <c r="H3" t="n">
-        <v>0.10250735393833</v>
+        <v>0.08601602487957501</v>
       </c>
       <c r="I3" t="n">
-        <v>0.061118953507546</v>
+        <v>0.054649965149259</v>
       </c>
       <c r="J3" t="n">
-        <v>0.550133232767771</v>
+        <v>0.527145475899525</v>
       </c>
       <c r="K3" t="n">
-        <v>0.010996370599282</v>
+        <v>0.007816772262366999</v>
       </c>
       <c r="L3" t="n">
-        <v>0.020617196922905</v>
+        <v>0.026553140455046</v>
       </c>
       <c r="M3" t="n">
-        <v>0.047878163374482</v>
+        <v>0.049981831647765</v>
       </c>
       <c r="N3" t="n">
-        <v>0.056133256182865</v>
+        <v>0.058057574049073</v>
       </c>
       <c r="O3" t="n">
-        <v>0.012725612936682</v>
+        <v>0.014832530946874</v>
       </c>
       <c r="P3" t="n">
-        <v>0.016793331971241</v>
+        <v>0.013866731355275</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.014821671943118</v>
+        <v>0.009887000272287999</v>
       </c>
       <c r="R3" t="n">
-        <v>0.014461149131861</v>
+        <v>0.016634108527702</v>
       </c>
       <c r="S3" t="n">
-        <v>0.046636443356646</v>
+        <v>0.053617344428358</v>
       </c>
       <c r="T3" t="n">
-        <v>0.042376081979689</v>
+        <v>0.049017520956889</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00361365859856</v>
+        <v>0.00122121203656</v>
       </c>
       <c r="V3" t="n">
-        <v>0.007033477736245</v>
+        <v>0.010813416984847</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01770562612776</v>
+        <v>0.02968615428777</v>
       </c>
       <c r="X3" t="n">
-        <v>0.004713877245534</v>
+        <v>0.00318069180962</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.011105392560581</v>
+        <v>0.018913720493769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.472854524100475</v>
+        <v>0.462399419132877</v>
       </c>
       <c r="D4" t="n">
-        <v>0.023842575596888</v>
+        <v>0.020345304031983</v>
       </c>
       <c r="E4" t="n">
-        <v>0.059436587546591</v>
+        <v>0.062225506286209</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00696366134685</v>
+        <v>0.007095612791025</v>
       </c>
       <c r="G4" t="n">
-        <v>0.405011434966635</v>
+        <v>0.436197665437065</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08601602487957501</v>
+        <v>0.093979861575148</v>
       </c>
       <c r="I4" t="n">
-        <v>0.054649965149259</v>
+        <v>0.05070960152063</v>
       </c>
       <c r="J4" t="n">
-        <v>0.527145475899525</v>
+        <v>0.537600580867123</v>
       </c>
       <c r="K4" t="n">
-        <v>0.007816772262366999</v>
+        <v>0.006007927987787</v>
       </c>
       <c r="L4" t="n">
-        <v>0.026553140455046</v>
+        <v>0.02894452234654</v>
       </c>
       <c r="M4" t="n">
-        <v>0.049981831647765</v>
+        <v>0.047565415280359</v>
       </c>
       <c r="N4" t="n">
-        <v>0.058057574049073</v>
+        <v>0.054783460395918</v>
       </c>
       <c r="O4" t="n">
-        <v>0.014832530946874</v>
+        <v>0.008760843605807001</v>
       </c>
       <c r="P4" t="n">
-        <v>0.013866731355275</v>
+        <v>0.00976685068467</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.009887000272287999</v>
+        <v>0.006414655286098</v>
       </c>
       <c r="R4" t="n">
-        <v>0.016634108527702</v>
+        <v>0.015924938026568</v>
       </c>
       <c r="S4" t="n">
-        <v>0.053617344428358</v>
+        <v>0.040926463224758</v>
       </c>
       <c r="T4" t="n">
-        <v>0.049017520956889</v>
+        <v>0.050072001385715</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00122121203656</v>
+        <v>0.000642084293711</v>
       </c>
       <c r="V4" t="n">
-        <v>0.010813416984847</v>
+        <v>0.008920217042136001</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02968615428777</v>
+        <v>0.026319317664745</v>
       </c>
       <c r="X4" t="n">
-        <v>0.00318069180962</v>
+        <v>0.002419788175916</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.018913720493769</v>
+        <v>0.021977962957212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.462399419132877</v>
+        <v>0.526043062108684</v>
       </c>
       <c r="D5" t="n">
-        <v>0.020345304031983</v>
+        <v>0.003744800726222</v>
       </c>
       <c r="E5" t="n">
-        <v>0.062225506286209</v>
+        <v>0.105204016496246</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007095612791025</v>
+        <v>0.01812042996664</v>
       </c>
       <c r="G5" t="n">
-        <v>0.436197665437065</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.093979861575148</v>
-      </c>
+        <v>0.357189676943929</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.05070960152063</v>
+        <v>0.076279984376942</v>
       </c>
       <c r="J5" t="n">
-        <v>0.537600580867123</v>
+        <v>0.473956937891316</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006007927987787</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.02894452234654</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.047565415280359</v>
-      </c>
+        <v>0.004328827185784</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.054783460395918</v>
+        <v>0.042395916765713</v>
       </c>
       <c r="O5" t="n">
-        <v>0.008760843605807001</v>
+        <v>0.070938675462891</v>
       </c>
       <c r="P5" t="n">
-        <v>0.00976685068467</v>
+        <v>0.012943591687607</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.006414655286098</v>
+        <v>0.010825804415088</v>
       </c>
       <c r="R5" t="n">
-        <v>0.015924938026568</v>
+        <v>0.016156008509889</v>
       </c>
       <c r="S5" t="n">
-        <v>0.040926463224758</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.050072001385715</v>
-      </c>
+        <v>0.027543684882838</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.000642084293711</v>
+        <v>0.000652777091438</v>
       </c>
       <c r="V5" t="n">
-        <v>0.008920217042136001</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.026319317664745</v>
-      </c>
+        <v>0.008336160040132001</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>0.002419788175916</v>
+        <v>0.000947439302079</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.021977962957212</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.526043062108684</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.003744800726222</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.105204016496246</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.01812042996664</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.357189676943929</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.076279984376942</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.473956937891316</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.004328827185784</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.042395916765713</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.070938675462891</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.012943591687607</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.010825804415088</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.016156008509889</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.027543684882838</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>0.000652777091438</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.008336160040132001</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>0.000947439302079</v>
-      </c>
-      <c r="Y6" t="n">
         <v>0.056210438979709</v>
       </c>
     </row>
